--- a/2022/Symphony/JUNE/18.06.2022/MC Bank Statement June-2022.xlsx
+++ b/2022/Symphony/JUNE/18.06.2022/MC Bank Statement June-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -9416,6 +9416,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9429,12 +9435,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9447,8 +9447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="B115" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -11438,14 +11438,14 @@
         <v>331070</v>
       </c>
       <c r="C19" s="56">
-        <v>420080</v>
+        <v>430080</v>
       </c>
       <c r="D19" s="53">
         <v>480</v>
       </c>
       <c r="E19" s="53">
         <f>C19+D19</f>
-        <v>420560</v>
+        <v>430560</v>
       </c>
       <c r="F19" s="240"/>
       <c r="G19" s="249"/>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="C33" s="264">
         <f>SUM(C5:C32)</f>
-        <v>5732760</v>
+        <v>5742760</v>
       </c>
       <c r="D33" s="263">
         <f>SUM(D5:D32)</f>
@@ -12884,11 +12884,11 @@
       </c>
       <c r="E33" s="263">
         <f>SUM(E5:E32)</f>
-        <v>5755100</v>
+        <v>5765100</v>
       </c>
       <c r="F33" s="263">
         <f>B33-E33</f>
-        <v>-930660</v>
+        <v>-940660</v>
       </c>
       <c r="G33" s="265"/>
       <c r="H33" s="145"/>
@@ -15006,7 +15006,7 @@
         <v>1725821212</v>
       </c>
       <c r="D52" s="216">
-        <v>68000</v>
+        <v>73000</v>
       </c>
       <c r="E52" s="186" t="s">
         <v>250</v>
@@ -18583,7 +18583,7 @@
       </c>
       <c r="C83" s="123"/>
       <c r="D83" s="216">
-        <v>40530</v>
+        <v>25530</v>
       </c>
       <c r="E83" s="185" t="s">
         <v>225</v>
@@ -22630,7 +22630,7 @@
       <c r="C119" s="352"/>
       <c r="D119" s="219">
         <f>SUM(D37:D118)</f>
-        <v>2452835</v>
+        <v>2442835</v>
       </c>
       <c r="E119" s="212"/>
       <c r="F119" s="144"/>
@@ -22837,7 +22837,7 @@
       <c r="C121" s="340"/>
       <c r="D121" s="219">
         <f>D119+M121</f>
-        <v>2452835</v>
+        <v>2442835</v>
       </c>
       <c r="E121" s="212"/>
       <c r="F121" s="144"/>
@@ -34071,8 +34071,8 @@
   </sheetPr>
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34250,7 +34250,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="283">
-        <v>12746.702199999243</v>
+        <v>7746.702199999243</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="268"/>
@@ -34312,7 +34312,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="252">
-        <v>2452835</v>
+        <v>2457835</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="116"/>
